--- a/Code/Results/Cases/Case_2_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.55214234642739</v>
+        <v>12.86867074118826</v>
       </c>
       <c r="C2">
-        <v>8.149539310427206</v>
+        <v>12.44650364804212</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.15957842291527</v>
+        <v>16.88878898332405</v>
       </c>
       <c r="F2">
-        <v>26.30209366259171</v>
+        <v>38.1279623031242</v>
       </c>
       <c r="G2">
-        <v>21.67241371166916</v>
+        <v>32.33038485469088</v>
       </c>
       <c r="H2">
-        <v>9.159663342974284</v>
+        <v>15.35259844640018</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.600439790066662</v>
+        <v>8.058749281693816</v>
       </c>
       <c r="K2">
-        <v>11.4037673410888</v>
+        <v>8.389170202324598</v>
       </c>
       <c r="L2">
-        <v>8.536626047581706</v>
+        <v>12.35103032800004</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.71021971919701</v>
+        <v>23.81053906310736</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.58110411920696</v>
+        <v>12.5863359163747</v>
       </c>
       <c r="C3">
-        <v>8.270926349820323</v>
+        <v>12.48932229835657</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.92071814308381</v>
+        <v>16.88757236665566</v>
       </c>
       <c r="F3">
-        <v>25.88855450110399</v>
+        <v>38.18137056632427</v>
       </c>
       <c r="G3">
-        <v>21.81364822704451</v>
+        <v>32.48996141659094</v>
       </c>
       <c r="H3">
-        <v>9.278547186237674</v>
+        <v>15.4082909874739</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.569304417677047</v>
+        <v>8.051377812484569</v>
       </c>
       <c r="K3">
-        <v>10.81996326554778</v>
+        <v>8.175709224834742</v>
       </c>
       <c r="L3">
-        <v>8.248589282916466</v>
+        <v>12.32093068236677</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.88891612276814</v>
+        <v>23.91279849931067</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.94905517029872</v>
+        <v>12.41127141871184</v>
       </c>
       <c r="C4">
-        <v>8.347815099385583</v>
+        <v>12.51698053927911</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.7768893672387</v>
+        <v>16.88950195653977</v>
       </c>
       <c r="F4">
-        <v>25.65230391700695</v>
+        <v>38.22280680706417</v>
       </c>
       <c r="G4">
-        <v>21.92620860960234</v>
+        <v>32.59680555999698</v>
       </c>
       <c r="H4">
-        <v>9.356242351625939</v>
+        <v>15.44466551970108</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.550263629581051</v>
+        <v>8.046892837478063</v>
       </c>
       <c r="K4">
-        <v>10.44447191749102</v>
+        <v>8.042327645248399</v>
       </c>
       <c r="L4">
-        <v>8.069572168040139</v>
+        <v>12.30405346897593</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.00969317774381</v>
+        <v>23.98005412457545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.6824356541093</v>
+        <v>12.33959792316548</v>
       </c>
       <c r="C5">
-        <v>8.379748402529117</v>
+        <v>12.52859632856396</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.71905677455092</v>
+        <v>16.89096311289856</v>
       </c>
       <c r="F5">
-        <v>25.56048868487453</v>
+        <v>38.24186369294289</v>
       </c>
       <c r="G5">
-        <v>21.97825664139318</v>
+        <v>32.64256725395901</v>
       </c>
       <c r="H5">
-        <v>9.389057395688562</v>
+        <v>15.4600369821835</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.542524964084305</v>
+        <v>8.045075809101967</v>
       </c>
       <c r="K5">
-        <v>10.28726330119682</v>
+        <v>7.987464238387264</v>
       </c>
       <c r="L5">
-        <v>7.996182957291698</v>
+        <v>12.29758383371534</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.06158357009255</v>
+        <v>24.0085844922321</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.63761551492341</v>
+        <v>12.32767935704076</v>
       </c>
       <c r="C6">
-        <v>8.385087401262279</v>
+        <v>12.53054597747919</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.70950268590986</v>
+        <v>16.89124654196696</v>
       </c>
       <c r="F6">
-        <v>25.54551233603813</v>
+        <v>38.24515913694894</v>
       </c>
       <c r="G6">
-        <v>21.98726314168428</v>
+        <v>32.6502999376061</v>
       </c>
       <c r="H6">
-        <v>9.394575206134375</v>
+        <v>15.46262255037555</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.541241249091176</v>
+        <v>8.044774743703227</v>
       </c>
       <c r="K6">
-        <v>10.26090872402044</v>
+        <v>7.978325660928165</v>
       </c>
       <c r="L6">
-        <v>7.983973502365865</v>
+        <v>12.29653432448002</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.07035834569181</v>
+        <v>24.01338976447531</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.94549616685119</v>
+        <v>12.4103060240796</v>
       </c>
       <c r="C7">
-        <v>8.348243321243933</v>
+        <v>12.51713579635585</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.7761061758281</v>
+        <v>16.88951892766973</v>
       </c>
       <c r="F7">
-        <v>25.65104759972858</v>
+        <v>38.22305502685403</v>
       </c>
       <c r="G7">
-        <v>21.92688594746634</v>
+        <v>32.59741373130808</v>
       </c>
       <c r="H7">
-        <v>9.356680271272671</v>
+        <v>15.44487060278306</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.550159177981751</v>
+        <v>8.046868288955494</v>
       </c>
       <c r="K7">
-        <v>10.44236858997714</v>
+        <v>8.041589701022952</v>
       </c>
       <c r="L7">
-        <v>8.06858404484948</v>
+        <v>12.30396455951206</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.01038230484884</v>
+        <v>23.98043434791408</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.22473673859523</v>
+        <v>12.77173340181784</v>
       </c>
       <c r="C8">
-        <v>8.190909283836659</v>
+        <v>12.46098430457061</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.07667156413821</v>
+        <v>16.88781510771865</v>
       </c>
       <c r="F8">
-        <v>26.1558537953856</v>
+        <v>38.14458245705418</v>
       </c>
       <c r="G8">
-        <v>21.71555412554685</v>
+        <v>32.38356307188556</v>
       </c>
       <c r="H8">
-        <v>9.19966126906251</v>
+        <v>15.37134932316374</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.589689279893395</v>
+        <v>8.056199235280495</v>
       </c>
       <c r="K8">
-        <v>11.20605519671859</v>
+        <v>8.316091970830719</v>
       </c>
       <c r="L8">
-        <v>8.437820019825569</v>
+        <v>12.34032188998235</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.76947255433491</v>
+        <v>23.8448705935278</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.45114609630812</v>
+        <v>13.46287598157538</v>
       </c>
       <c r="C9">
-        <v>7.900705185998072</v>
+        <v>12.36167615916206</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.68564336697312</v>
+        <v>16.90562418452457</v>
       </c>
       <c r="F9">
-        <v>27.28453533343674</v>
+        <v>38.05934770245335</v>
       </c>
       <c r="G9">
-        <v>21.5206635192172</v>
+        <v>32.03483878546146</v>
       </c>
       <c r="H9">
-        <v>8.930438318870712</v>
+        <v>15.24443729313907</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.667755011470763</v>
+        <v>8.07481139628624</v>
       </c>
       <c r="K9">
-        <v>12.56545797447224</v>
+        <v>8.833025890468223</v>
       </c>
       <c r="L9">
-        <v>9.140572932697498</v>
+        <v>12.42413236361643</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.38996895468385</v>
+        <v>23.61449654093698</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.91784237899363</v>
+        <v>13.95481054343059</v>
       </c>
       <c r="C10">
-        <v>7.698130304765511</v>
+        <v>12.2952379599454</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.14119735781958</v>
+        <v>16.93147162803886</v>
       </c>
       <c r="F10">
-        <v>28.19577606221585</v>
+        <v>38.03862849480254</v>
       </c>
       <c r="G10">
-        <v>21.5311953528316</v>
+        <v>31.82211040973855</v>
       </c>
       <c r="H10">
-        <v>8.758375860782984</v>
+        <v>15.16168124303092</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.725367229313026</v>
+        <v>8.088661786725723</v>
       </c>
       <c r="K10">
-        <v>13.4770208813255</v>
+        <v>9.196105574029339</v>
       </c>
       <c r="L10">
-        <v>9.638973429218181</v>
+        <v>12.49303361370532</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.17550342142306</v>
+        <v>23.46688245409512</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.54903372712671</v>
+        <v>14.1741802180173</v>
       </c>
       <c r="C11">
-        <v>7.608163527525229</v>
+        <v>12.26641656379449</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.34946026203153</v>
+        <v>16.94596831972532</v>
       </c>
       <c r="F11">
-        <v>28.62741872904195</v>
+        <v>38.03829618045638</v>
       </c>
       <c r="G11">
-        <v>21.57357458326316</v>
+        <v>31.73486406552745</v>
       </c>
       <c r="H11">
-        <v>8.686229156842808</v>
+        <v>15.12630261830107</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.751616283147346</v>
+        <v>8.094997568503661</v>
       </c>
       <c r="K11">
-        <v>13.87241992367869</v>
+        <v>9.356963864501832</v>
       </c>
       <c r="L11">
-        <v>9.860969024232183</v>
+        <v>12.52589895019781</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.09375403890245</v>
+        <v>23.40443344440409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.78292465683893</v>
+        <v>14.25654026537071</v>
       </c>
       <c r="C12">
-        <v>7.574399813171439</v>
+        <v>12.25570320581388</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.42841443570041</v>
+        <v>16.95184831217986</v>
       </c>
       <c r="F12">
-        <v>28.79326534002106</v>
+        <v>38.03947589765795</v>
       </c>
       <c r="G12">
-        <v>21.59536346300953</v>
+        <v>31.7032030366932</v>
       </c>
       <c r="H12">
-        <v>8.659840865115319</v>
+        <v>15.11323119970688</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.761560557360544</v>
+        <v>8.097401503830485</v>
       </c>
       <c r="K12">
-        <v>14.0193581119709</v>
+        <v>9.417206105254209</v>
       </c>
       <c r="L12">
-        <v>9.94429418231168</v>
+        <v>12.53855662417105</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.06523657177487</v>
+        <v>23.38146229310198</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.7327792743001</v>
+        <v>14.23883530363017</v>
       </c>
       <c r="C13">
-        <v>7.581658034066185</v>
+        <v>12.25800160778773</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.41140714038248</v>
+        <v>16.95056464401152</v>
       </c>
       <c r="F13">
-        <v>28.75744196746384</v>
+        <v>38.03916380072457</v>
       </c>
       <c r="G13">
-        <v>21.59041029596064</v>
+        <v>31.70996043150179</v>
       </c>
       <c r="H13">
-        <v>8.665481730229853</v>
+        <v>15.11603188369543</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.759418712125659</v>
+        <v>8.096883569318116</v>
       </c>
       <c r="K13">
-        <v>13.98783667965342</v>
+        <v>9.404262492842504</v>
       </c>
       <c r="L13">
-        <v>9.926382376723742</v>
+        <v>12.53582123315338</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.07126709294491</v>
+        <v>23.38637942037302</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.56837853837053</v>
+        <v>14.18097068269451</v>
       </c>
       <c r="C14">
-        <v>7.605379714349138</v>
+        <v>12.26553115247998</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.35595439320709</v>
+        <v>16.94644426627345</v>
       </c>
       <c r="F14">
-        <v>28.64101546375665</v>
+        <v>38.03836708579305</v>
       </c>
       <c r="G14">
-        <v>21.57525023246196</v>
+        <v>31.73223164797231</v>
       </c>
       <c r="H14">
-        <v>8.684039183927657</v>
+        <v>15.12522069937786</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.752434326706171</v>
+        <v>8.095195249264682</v>
       </c>
       <c r="K14">
-        <v>13.88456462804602</v>
+        <v>9.36193376404815</v>
       </c>
       <c r="L14">
-        <v>9.867839371656004</v>
+        <v>12.52693608856593</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.09135802078549</v>
+        <v>23.40253002204666</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.46701213551102</v>
+        <v>14.14543224860405</v>
       </c>
       <c r="C15">
-        <v>7.619949328458921</v>
+        <v>12.27016932442822</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.32199798889231</v>
+        <v>16.94397115336856</v>
       </c>
       <c r="F15">
-        <v>28.5700104645774</v>
+        <v>38.03804902252325</v>
       </c>
       <c r="G15">
-        <v>21.5667216411496</v>
+        <v>31.74605299586093</v>
       </c>
       <c r="H15">
-        <v>8.695529154475796</v>
+        <v>15.13089151930487</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.748156706552911</v>
+        <v>8.094161707825814</v>
       </c>
       <c r="K15">
-        <v>13.82094364643623</v>
+        <v>9.335917313945199</v>
       </c>
       <c r="L15">
-        <v>9.831882131073339</v>
+        <v>12.52152112795971</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.10398703531262</v>
+        <v>23.41251091531948</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.87587218038585</v>
+        <v>13.94037879967784</v>
       </c>
       <c r="C16">
-        <v>7.704053016172595</v>
+        <v>12.29714963580593</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.12760249415427</v>
+        <v>16.93057905848751</v>
       </c>
       <c r="F16">
-        <v>28.16790578090604</v>
+        <v>38.03883303527779</v>
       </c>
       <c r="G16">
-        <v>21.5292110841423</v>
+        <v>31.8280044807054</v>
       </c>
       <c r="H16">
-        <v>8.763218346189321</v>
+        <v>15.16403891577863</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.723652482015432</v>
+        <v>8.088248406814817</v>
       </c>
       <c r="K16">
-        <v>13.45079092117361</v>
+        <v>9.185501880799901</v>
       </c>
       <c r="L16">
-        <v>9.624365025530157</v>
+        <v>12.49091585524946</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.18117803867054</v>
+        <v>23.47105832204259</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.50403864572382</v>
+        <v>13.81339902209668</v>
       </c>
       <c r="C17">
-        <v>7.756200987427269</v>
+        <v>12.31405955625776</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.0085677117418</v>
+        <v>16.92306252948277</v>
       </c>
       <c r="F17">
-        <v>27.92556291694353</v>
+        <v>38.04164178542729</v>
       </c>
       <c r="G17">
-        <v>21.51606898135258</v>
+        <v>31.88072405350282</v>
       </c>
       <c r="H17">
-        <v>8.806347260744586</v>
+        <v>15.18495426825084</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.708629306379193</v>
+        <v>8.08462955216843</v>
       </c>
       <c r="K17">
-        <v>13.21876089343784</v>
+        <v>9.092085104496677</v>
       </c>
       <c r="L17">
-        <v>9.495803434056592</v>
+        <v>12.47252570461737</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.23269671897527</v>
+        <v>23.50818001179893</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.28677666317135</v>
+        <v>13.73995235083641</v>
       </c>
       <c r="C18">
-        <v>7.786401422924256</v>
+        <v>12.32391767942441</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.94020214653787</v>
+        <v>16.91899720795212</v>
       </c>
       <c r="F18">
-        <v>27.78778886740862</v>
+        <v>38.04411335194758</v>
       </c>
       <c r="G18">
-        <v>21.51202845556116</v>
+        <v>31.91194303415419</v>
       </c>
       <c r="H18">
-        <v>8.831727060008612</v>
+        <v>15.19719767608669</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.69999232155113</v>
+        <v>8.082551414007474</v>
       </c>
       <c r="K18">
-        <v>13.08348958844894</v>
+        <v>9.037951510137813</v>
       </c>
       <c r="L18">
-        <v>9.421416058980878</v>
+        <v>12.46209182504796</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.26380669609329</v>
+        <v>23.52997388713205</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.2126311591668</v>
+        <v>13.71501633337336</v>
       </c>
       <c r="C19">
-        <v>7.796662489635738</v>
+        <v>12.32727816591671</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.91707378751724</v>
+        <v>16.91766516819096</v>
       </c>
       <c r="F19">
-        <v>27.74142040722458</v>
+        <v>38.04509725531522</v>
       </c>
       <c r="G19">
-        <v>21.51125429974376</v>
+        <v>31.92266691312947</v>
       </c>
       <c r="H19">
-        <v>8.84041718757404</v>
+        <v>15.20137975540639</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.697068713092782</v>
+        <v>8.081848374717961</v>
       </c>
       <c r="K19">
-        <v>13.03737825845306</v>
+        <v>9.019555286866265</v>
       </c>
       <c r="L19">
-        <v>9.39615579630043</v>
+        <v>12.45858395993149</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.27458892997199</v>
+        <v>23.5374288857116</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.5439717708069</v>
+        <v>13.82695936641215</v>
       </c>
       <c r="C20">
-        <v>7.750628463536644</v>
+        <v>12.31224581289431</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.02122924635073</v>
+        <v>16.9238359998026</v>
       </c>
       <c r="F20">
-        <v>27.95119405772853</v>
+        <v>38.04125420310995</v>
       </c>
       <c r="G20">
-        <v>21.51710136636283</v>
+        <v>31.87501916894058</v>
       </c>
       <c r="H20">
-        <v>8.801696435694275</v>
+        <v>15.18270570468609</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.710228151832535</v>
+        <v>8.085014443126322</v>
       </c>
       <c r="K20">
-        <v>13.24364877012593</v>
+        <v>9.102071550750647</v>
       </c>
       <c r="L20">
-        <v>9.509535255950862</v>
+        <v>12.47446854709997</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.22705835371314</v>
+        <v>23.50418254519283</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.61680576235607</v>
+        <v>14.19798678399401</v>
       </c>
       <c r="C21">
-        <v>7.598403888323513</v>
+        <v>12.26331410327229</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.37224022197159</v>
+        <v>16.94764395390642</v>
       </c>
       <c r="F21">
-        <v>28.67514835222688</v>
+        <v>38.03856568816433</v>
       </c>
       <c r="G21">
-        <v>21.57954469013619</v>
+        <v>31.72565261313068</v>
       </c>
       <c r="H21">
-        <v>8.678562679411018</v>
+        <v>15.12251288493853</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.75448570489293</v>
+        <v>8.095691024676913</v>
       </c>
       <c r="K21">
-        <v>13.91497398477089</v>
+        <v>9.374385346571989</v>
       </c>
       <c r="L21">
-        <v>9.885055380310302</v>
+        <v>12.52954016301529</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.08538926029701</v>
+        <v>23.39776781987887</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.28810244092926</v>
+        <v>14.43630205951268</v>
       </c>
       <c r="C22">
-        <v>7.500688025479429</v>
+        <v>12.2325037130595</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.60214436187647</v>
+        <v>16.96547766478685</v>
       </c>
       <c r="F22">
-        <v>29.16221077150104</v>
+        <v>38.04441681934171</v>
       </c>
       <c r="G22">
-        <v>21.65396340693242</v>
+        <v>31.63606415174814</v>
       </c>
       <c r="H22">
-        <v>8.603548098478907</v>
+        <v>15.08507166177206</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.783435093815992</v>
+        <v>8.102696090756293</v>
       </c>
       <c r="K22">
-        <v>14.33745365533118</v>
+        <v>9.548424462115747</v>
       </c>
       <c r="L22">
-        <v>10.12614605420362</v>
+        <v>12.56676679197999</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.00710183846581</v>
+        <v>23.33216576283636</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.93253381180459</v>
+        <v>14.30951413888896</v>
       </c>
       <c r="C23">
-        <v>7.552681933623312</v>
+        <v>12.24884109436898</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.47941268534816</v>
+        <v>16.95575261449529</v>
       </c>
       <c r="F23">
-        <v>28.90100550035663</v>
+        <v>38.04059869732106</v>
       </c>
       <c r="G23">
-        <v>21.6110618587058</v>
+        <v>31.68314186055763</v>
       </c>
       <c r="H23">
-        <v>8.643066892955108</v>
+        <v>15.10488117260293</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.767982525325642</v>
+        <v>8.098954972340401</v>
       </c>
       <c r="K23">
-        <v>14.11346113642223</v>
+        <v>9.455912371284093</v>
       </c>
       <c r="L23">
-        <v>9.997885403157099</v>
+        <v>12.54678754287977</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.04751951086551</v>
+        <v>23.36681744575878</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.52592887919724</v>
+        <v>13.8208301128421</v>
       </c>
       <c r="C24">
-        <v>7.753147116016833</v>
+        <v>12.31306538137474</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.0155047467782</v>
+        <v>16.92348551611338</v>
       </c>
       <c r="F24">
-        <v>27.93960137937249</v>
+        <v>38.0414267601456</v>
       </c>
       <c r="G24">
-        <v>21.51662370211802</v>
+        <v>31.87759551386743</v>
       </c>
       <c r="H24">
-        <v>8.80379725720489</v>
+        <v>15.18372159840195</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.70950531356269</v>
+        <v>8.084840426453084</v>
       </c>
       <c r="K24">
-        <v>13.2324027970985</v>
+        <v>9.097558004573203</v>
       </c>
       <c r="L24">
-        <v>9.503328576044465</v>
+        <v>12.47358975498074</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.22960282630066</v>
+        <v>23.50598839157406</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.87874887156709</v>
+        <v>13.27833569586052</v>
       </c>
       <c r="C25">
-        <v>7.97730537772494</v>
+        <v>12.3873915062945</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.51920479514048</v>
+        <v>16.89855446011488</v>
       </c>
       <c r="F25">
-        <v>26.96457305019965</v>
+        <v>38.0750479285633</v>
       </c>
       <c r="G25">
-        <v>21.54783042456433</v>
+        <v>32.1215724575635</v>
       </c>
       <c r="H25">
-        <v>8.998919799102378</v>
+        <v>15.27692621000383</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.646585391274417</v>
+        <v>8.069744256048491</v>
       </c>
       <c r="K25">
-        <v>12.21285442887789</v>
+        <v>8.695867449574679</v>
       </c>
       <c r="L25">
-        <v>8.953285566744338</v>
+        <v>12.40014984699404</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.4819245416683</v>
+        <v>23.67301993843298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_250/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_250/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.86867074118826</v>
+        <v>14.55214234642742</v>
       </c>
       <c r="C2">
-        <v>12.44650364804212</v>
+        <v>8.149539310427208</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.88878898332405</v>
+        <v>11.15957842291532</v>
       </c>
       <c r="F2">
-        <v>38.1279623031242</v>
+        <v>26.30209366259169</v>
       </c>
       <c r="G2">
-        <v>32.33038485469088</v>
+        <v>21.67241371166907</v>
       </c>
       <c r="H2">
-        <v>15.35259844640018</v>
+        <v>9.159663342974032</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.058749281693816</v>
+        <v>5.600439790066602</v>
       </c>
       <c r="K2">
-        <v>8.389170202324598</v>
+        <v>11.40376734108884</v>
       </c>
       <c r="L2">
-        <v>12.35103032800004</v>
+        <v>8.536626047581747</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>23.81053906310736</v>
+        <v>14.71021971919687</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.5863359163747</v>
+        <v>13.58110411920692</v>
       </c>
       <c r="C3">
-        <v>12.48932229835657</v>
+        <v>8.270926349820055</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.88757236665566</v>
+        <v>10.92071814308376</v>
       </c>
       <c r="F3">
-        <v>38.18137056632427</v>
+        <v>25.88855450110402</v>
       </c>
       <c r="G3">
-        <v>32.48996141659094</v>
+        <v>21.81364822704459</v>
       </c>
       <c r="H3">
-        <v>15.4082909874739</v>
+        <v>9.278547186237736</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.051377812484569</v>
+        <v>5.569304417676983</v>
       </c>
       <c r="K3">
-        <v>8.175709224834742</v>
+        <v>10.81996326554774</v>
       </c>
       <c r="L3">
-        <v>12.32093068236677</v>
+        <v>8.248589282916475</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>23.91279849931067</v>
+        <v>14.88891612276817</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.41127141871184</v>
+        <v>12.9490551702987</v>
       </c>
       <c r="C4">
-        <v>12.51698053927911</v>
+        <v>8.347815099385452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16.88950195653977</v>
+        <v>10.77688936723867</v>
       </c>
       <c r="F4">
-        <v>38.22280680706417</v>
+        <v>25.6523039170071</v>
       </c>
       <c r="G4">
-        <v>32.59680555999698</v>
+        <v>21.92620860960283</v>
       </c>
       <c r="H4">
-        <v>15.44466551970108</v>
+        <v>9.356242351626012</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.046892837478063</v>
+        <v>5.550263629580979</v>
       </c>
       <c r="K4">
-        <v>8.042327645248399</v>
+        <v>10.44447191749095</v>
       </c>
       <c r="L4">
-        <v>12.30405346897593</v>
+        <v>8.069572168040086</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.98005412457545</v>
+        <v>15.00969317774401</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.33959792316548</v>
+        <v>12.68243565410931</v>
       </c>
       <c r="C5">
-        <v>12.52859632856396</v>
+        <v>8.379748402528984</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.89096311289856</v>
+        <v>10.71905677455096</v>
       </c>
       <c r="F5">
-        <v>38.24186369294289</v>
+        <v>25.56048868487441</v>
       </c>
       <c r="G5">
-        <v>32.64256725395901</v>
+        <v>21.97825664139295</v>
       </c>
       <c r="H5">
-        <v>15.4600369821835</v>
+        <v>9.389057395688559</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.045075809101967</v>
+        <v>5.542524964084407</v>
       </c>
       <c r="K5">
-        <v>7.987464238387264</v>
+        <v>10.28726330119683</v>
       </c>
       <c r="L5">
-        <v>12.29758383371534</v>
+        <v>7.99618295729176</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.0085844922321</v>
+        <v>15.06158357009251</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.32767935704076</v>
+        <v>12.63761551492338</v>
       </c>
       <c r="C6">
-        <v>12.53054597747919</v>
+        <v>8.385087401262147</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.89124654196696</v>
+        <v>10.70950268590981</v>
       </c>
       <c r="F6">
-        <v>38.24515913694894</v>
+        <v>25.54551233603809</v>
       </c>
       <c r="G6">
-        <v>32.6502999376061</v>
+        <v>21.98726314168417</v>
       </c>
       <c r="H6">
-        <v>15.46262255037555</v>
+        <v>9.39457520613432</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.044774743703227</v>
+        <v>5.541241249091143</v>
       </c>
       <c r="K6">
-        <v>7.978325660928165</v>
+        <v>10.2609087240204</v>
       </c>
       <c r="L6">
-        <v>12.29653432448002</v>
+        <v>7.98397350236586</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.01338976447531</v>
+        <v>15.07035834569176</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4103060240796</v>
+        <v>12.94549616685118</v>
       </c>
       <c r="C7">
-        <v>12.51713579635585</v>
+        <v>8.348243321244201</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>16.88951892766973</v>
+        <v>10.77610617582819</v>
       </c>
       <c r="F7">
-        <v>38.22305502685403</v>
+        <v>25.65104759972874</v>
       </c>
       <c r="G7">
-        <v>32.59741373130808</v>
+        <v>21.92688594746661</v>
       </c>
       <c r="H7">
-        <v>15.44487060278306</v>
+        <v>9.356680271272799</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.046868288955494</v>
+        <v>5.550159177981715</v>
       </c>
       <c r="K7">
-        <v>8.041589701022952</v>
+        <v>10.44236858997715</v>
       </c>
       <c r="L7">
-        <v>12.30396455951206</v>
+        <v>8.068584044849489</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.98043434791408</v>
+        <v>15.01038230484898</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.77173340181784</v>
+        <v>14.22473673859526</v>
       </c>
       <c r="C8">
-        <v>12.46098430457061</v>
+        <v>8.190909283836659</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.88781510771865</v>
+        <v>11.07667156413824</v>
       </c>
       <c r="F8">
-        <v>38.14458245705418</v>
+        <v>26.1558537953855</v>
       </c>
       <c r="G8">
-        <v>32.38356307188556</v>
+        <v>21.71555412554659</v>
       </c>
       <c r="H8">
-        <v>15.37134932316374</v>
+        <v>9.199661269062394</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.056199235280495</v>
+        <v>5.589689279893427</v>
       </c>
       <c r="K8">
-        <v>8.316091970830719</v>
+        <v>11.20605519671868</v>
       </c>
       <c r="L8">
-        <v>12.34032188998235</v>
+        <v>8.437820019825576</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>23.8448705935278</v>
+        <v>14.76947255433472</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.46287598157538</v>
+        <v>16.45114609630804</v>
       </c>
       <c r="C9">
-        <v>12.36167615916206</v>
+        <v>7.900705185998071</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.90562418452457</v>
+        <v>11.68564336697314</v>
       </c>
       <c r="F9">
-        <v>38.05934770245335</v>
+        <v>27.28453533343695</v>
       </c>
       <c r="G9">
-        <v>32.03483878546146</v>
+        <v>21.52066351921766</v>
       </c>
       <c r="H9">
-        <v>15.24443729313907</v>
+        <v>8.930438318870831</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.07481139628624</v>
+        <v>5.667755011470789</v>
       </c>
       <c r="K9">
-        <v>8.833025890468223</v>
+        <v>12.5654579744722</v>
       </c>
       <c r="L9">
-        <v>12.42413236361643</v>
+        <v>9.140572932697534</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.61449654093698</v>
+        <v>14.38996895468419</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.95481054343059</v>
+        <v>17.91784237899364</v>
       </c>
       <c r="C10">
-        <v>12.2952379599454</v>
+        <v>7.698130304765513</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>16.93147162803886</v>
+        <v>12.14119735781962</v>
       </c>
       <c r="F10">
-        <v>38.03862849480254</v>
+        <v>28.19577606221583</v>
       </c>
       <c r="G10">
-        <v>31.82211040973855</v>
+        <v>21.53119535283153</v>
       </c>
       <c r="H10">
-        <v>15.16168124303092</v>
+        <v>8.758375860782925</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.088661786725723</v>
+        <v>5.725367229313026</v>
       </c>
       <c r="K10">
-        <v>9.196105574029339</v>
+        <v>13.47702088132549</v>
       </c>
       <c r="L10">
-        <v>12.49303361370532</v>
+        <v>9.638973429218215</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.46688245409512</v>
+        <v>14.175503421423</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.1741802180173</v>
+        <v>18.54903372712675</v>
       </c>
       <c r="C11">
-        <v>12.26641656379449</v>
+        <v>7.608163527525097</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>16.94596831972532</v>
+        <v>12.34946026203157</v>
       </c>
       <c r="F11">
-        <v>38.03829618045638</v>
+        <v>28.62741872904194</v>
       </c>
       <c r="G11">
-        <v>31.73486406552745</v>
+        <v>21.57357458326317</v>
       </c>
       <c r="H11">
-        <v>15.12630261830107</v>
+        <v>8.686229156842739</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.094997568503661</v>
+        <v>5.751616283147285</v>
       </c>
       <c r="K11">
-        <v>9.356963864501832</v>
+        <v>13.87241992367874</v>
       </c>
       <c r="L11">
-        <v>12.52589895019781</v>
+        <v>9.86096902423219</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.40443344440409</v>
+        <v>14.0937540389024</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.25654026537071</v>
+        <v>18.78292465683896</v>
       </c>
       <c r="C12">
-        <v>12.25570320581388</v>
+        <v>7.574399813171439</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.95184831217986</v>
+        <v>12.42841443570049</v>
       </c>
       <c r="F12">
-        <v>38.03947589765795</v>
+        <v>28.79326534002103</v>
       </c>
       <c r="G12">
-        <v>31.7032030366932</v>
+        <v>21.5953634630093</v>
       </c>
       <c r="H12">
-        <v>15.11323119970688</v>
+        <v>8.659840865115312</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.097401503830485</v>
+        <v>5.761560557360576</v>
       </c>
       <c r="K12">
-        <v>9.417206105254209</v>
+        <v>14.01935811197094</v>
       </c>
       <c r="L12">
-        <v>12.53855662417105</v>
+        <v>9.944294182311717</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.38146229310198</v>
+        <v>14.06523657177474</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.23883530363017</v>
+        <v>18.73277927430005</v>
       </c>
       <c r="C13">
-        <v>12.25800160778773</v>
+        <v>7.58165803406632</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.95056464401152</v>
+        <v>12.41140714038246</v>
       </c>
       <c r="F13">
-        <v>38.03916380072457</v>
+        <v>28.75744196746381</v>
       </c>
       <c r="G13">
-        <v>31.70996043150179</v>
+        <v>21.59041029596071</v>
       </c>
       <c r="H13">
-        <v>15.11603188369543</v>
+        <v>8.665481730229796</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.096883569318116</v>
+        <v>5.759418712125597</v>
       </c>
       <c r="K13">
-        <v>9.404262492842504</v>
+        <v>13.98783667965341</v>
       </c>
       <c r="L13">
-        <v>12.53582123315338</v>
+        <v>9.926382376723687</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.38637942037302</v>
+        <v>14.07126709294487</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.18097068269451</v>
+        <v>18.56837853837058</v>
       </c>
       <c r="C14">
-        <v>12.26553115247998</v>
+        <v>7.605379714349138</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>16.94644426627345</v>
+        <v>12.35595439320712</v>
       </c>
       <c r="F14">
-        <v>38.03836708579305</v>
+        <v>28.64101546375665</v>
       </c>
       <c r="G14">
-        <v>31.73223164797231</v>
+        <v>21.5752502324619</v>
       </c>
       <c r="H14">
-        <v>15.12522069937786</v>
+        <v>8.68403918392767</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.095195249264682</v>
+        <v>5.752434326706171</v>
       </c>
       <c r="K14">
-        <v>9.36193376404815</v>
+        <v>13.88456462804611</v>
       </c>
       <c r="L14">
-        <v>12.52693608856593</v>
+        <v>9.86783937165602</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.40253002204666</v>
+        <v>14.09135802078545</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.14543224860405</v>
+        <v>18.46701213551104</v>
       </c>
       <c r="C15">
-        <v>12.27016932442822</v>
+        <v>7.619949328459187</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>16.94397115336856</v>
+        <v>12.32199798889225</v>
       </c>
       <c r="F15">
-        <v>38.03804902252325</v>
+        <v>28.57001046457726</v>
       </c>
       <c r="G15">
-        <v>31.74605299586093</v>
+        <v>21.56672164114941</v>
       </c>
       <c r="H15">
-        <v>15.13089151930487</v>
+        <v>8.695529154475743</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.094161707825814</v>
+        <v>5.748156706552915</v>
       </c>
       <c r="K15">
-        <v>9.335917313945199</v>
+        <v>13.82094364643628</v>
       </c>
       <c r="L15">
-        <v>12.52152112795971</v>
+        <v>9.831882131073302</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.41251091531948</v>
+        <v>14.10398703531249</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.94037879967784</v>
+        <v>17.87587218038586</v>
       </c>
       <c r="C16">
-        <v>12.29714963580593</v>
+        <v>7.704053016172455</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>16.93057905848751</v>
+        <v>12.1276024941543</v>
       </c>
       <c r="F16">
-        <v>38.03883303527779</v>
+        <v>28.16790578090605</v>
       </c>
       <c r="G16">
-        <v>31.8280044807054</v>
+        <v>21.52921108414227</v>
       </c>
       <c r="H16">
-        <v>15.16403891577863</v>
+        <v>8.763218346189317</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.088248406814817</v>
+        <v>5.723652482015432</v>
       </c>
       <c r="K16">
-        <v>9.185501880799901</v>
+        <v>13.45079092117361</v>
       </c>
       <c r="L16">
-        <v>12.49091585524946</v>
+        <v>9.624365025530194</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.47105832204259</v>
+        <v>14.18117803867053</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.81339902209668</v>
+        <v>17.50403864572383</v>
       </c>
       <c r="C17">
-        <v>12.31405955625776</v>
+        <v>7.756200987427134</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>16.92306252948277</v>
+        <v>12.00856771174171</v>
       </c>
       <c r="F17">
-        <v>38.04164178542729</v>
+        <v>27.9255629169435</v>
       </c>
       <c r="G17">
-        <v>31.88072405350282</v>
+        <v>21.51606898135272</v>
       </c>
       <c r="H17">
-        <v>15.18495426825084</v>
+        <v>8.806347260744642</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.08462955216843</v>
+        <v>5.708629306379257</v>
       </c>
       <c r="K17">
-        <v>9.092085104496677</v>
+        <v>13.21876089343781</v>
       </c>
       <c r="L17">
-        <v>12.47252570461737</v>
+        <v>9.495803434056583</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.50818001179893</v>
+        <v>14.23269671897535</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.73995235083641</v>
+        <v>17.28677666317135</v>
       </c>
       <c r="C18">
-        <v>12.32391767942441</v>
+        <v>7.786401422923986</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>16.91899720795212</v>
+        <v>11.94020214653781</v>
       </c>
       <c r="F18">
-        <v>38.04411335194758</v>
+        <v>27.78778886740862</v>
       </c>
       <c r="G18">
-        <v>31.91194303415419</v>
+        <v>21.51202845556123</v>
       </c>
       <c r="H18">
-        <v>15.19719767608669</v>
+        <v>8.831727060008667</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.082551414007474</v>
+        <v>5.699992321551131</v>
       </c>
       <c r="K18">
-        <v>9.037951510137813</v>
+        <v>13.08348958844889</v>
       </c>
       <c r="L18">
-        <v>12.46209182504796</v>
+        <v>9.421416058980853</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.52997388713205</v>
+        <v>14.26380669609336</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.71501633337336</v>
+        <v>17.21263115916686</v>
       </c>
       <c r="C19">
-        <v>12.32727816591671</v>
+        <v>7.796662489635331</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.91766516819096</v>
+        <v>11.91707378751724</v>
       </c>
       <c r="F19">
-        <v>38.04509725531522</v>
+        <v>27.74142040722454</v>
       </c>
       <c r="G19">
-        <v>31.92266691312947</v>
+        <v>21.51125429974369</v>
       </c>
       <c r="H19">
-        <v>15.20137975540639</v>
+        <v>8.840417187573976</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.081848374717961</v>
+        <v>5.697068713092722</v>
       </c>
       <c r="K19">
-        <v>9.019555286866265</v>
+        <v>13.03737825845308</v>
       </c>
       <c r="L19">
-        <v>12.45858395993149</v>
+        <v>9.396155796300462</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.5374288857116</v>
+        <v>14.27458892997188</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.82695936641215</v>
+        <v>17.54397177080688</v>
       </c>
       <c r="C20">
-        <v>12.31224581289431</v>
+        <v>7.75062846353651</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>16.9238359998026</v>
+        <v>12.02122924635073</v>
       </c>
       <c r="F20">
-        <v>38.04125420310995</v>
+        <v>27.95119405772855</v>
       </c>
       <c r="G20">
-        <v>31.87501916894058</v>
+        <v>21.51710136636287</v>
       </c>
       <c r="H20">
-        <v>15.18270570468609</v>
+        <v>8.801696435694392</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.085014443126322</v>
+        <v>5.710228151832567</v>
       </c>
       <c r="K20">
-        <v>9.102071550750647</v>
+        <v>13.24364877012591</v>
       </c>
       <c r="L20">
-        <v>12.47446854709997</v>
+        <v>9.509535255950892</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.50418254519283</v>
+        <v>14.22705835371321</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.19798678399401</v>
+        <v>18.61680576235603</v>
       </c>
       <c r="C21">
-        <v>12.26331410327229</v>
+        <v>7.598403888323649</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>16.94764395390642</v>
+        <v>12.37224022197163</v>
       </c>
       <c r="F21">
-        <v>38.03856568816433</v>
+        <v>28.67514835222692</v>
       </c>
       <c r="G21">
-        <v>31.72565261313068</v>
+        <v>21.57954469013615</v>
       </c>
       <c r="H21">
-        <v>15.12251288493853</v>
+        <v>8.678562679410971</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.095691024676913</v>
+        <v>5.754485704892926</v>
       </c>
       <c r="K21">
-        <v>9.374385346571989</v>
+        <v>13.91497398477085</v>
       </c>
       <c r="L21">
-        <v>12.52954016301529</v>
+        <v>9.885055380310357</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.39776781987887</v>
+        <v>14.08538926029695</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.43630205951268</v>
+        <v>19.28810244092928</v>
       </c>
       <c r="C22">
-        <v>12.2325037130595</v>
+        <v>7.500688025479296</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>16.96547766478685</v>
+        <v>12.60214436187652</v>
       </c>
       <c r="F22">
-        <v>38.04441681934171</v>
+        <v>29.16221077150109</v>
       </c>
       <c r="G22">
-        <v>31.63606415174814</v>
+        <v>21.65396340693234</v>
       </c>
       <c r="H22">
-        <v>15.08507166177206</v>
+        <v>8.603548098478917</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.102696090756293</v>
+        <v>5.783435093815998</v>
       </c>
       <c r="K22">
-        <v>9.548424462115747</v>
+        <v>14.33745365533121</v>
       </c>
       <c r="L22">
-        <v>12.56676679197999</v>
+        <v>10.12614605420366</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.33216576283636</v>
+        <v>14.00710183846576</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.30951413888896</v>
+        <v>18.93253381180463</v>
       </c>
       <c r="C23">
-        <v>12.24884109436898</v>
+        <v>7.552681933623314</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>16.95575261449529</v>
+        <v>12.47941268534822</v>
       </c>
       <c r="F23">
-        <v>38.04059869732106</v>
+        <v>28.90100550035659</v>
       </c>
       <c r="G23">
-        <v>31.68314186055763</v>
+        <v>21.61106185870559</v>
       </c>
       <c r="H23">
-        <v>15.10488117260293</v>
+        <v>8.64306689295505</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.098954972340401</v>
+        <v>5.767982525325619</v>
       </c>
       <c r="K23">
-        <v>9.455912371284093</v>
+        <v>14.11346113642231</v>
       </c>
       <c r="L23">
-        <v>12.54678754287977</v>
+        <v>9.997885403157118</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.36681744575878</v>
+        <v>14.04751951086541</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.8208301128421</v>
+        <v>17.52592887919721</v>
       </c>
       <c r="C24">
-        <v>12.31306538137474</v>
+        <v>7.753147116017104</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>16.92348551611338</v>
+        <v>12.01550474677826</v>
       </c>
       <c r="F24">
-        <v>38.0414267601456</v>
+        <v>27.93960137937249</v>
       </c>
       <c r="G24">
-        <v>31.87759551386743</v>
+        <v>21.516623702118</v>
       </c>
       <c r="H24">
-        <v>15.18372159840195</v>
+        <v>8.803797257204881</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.084840426453084</v>
+        <v>5.709505313562686</v>
       </c>
       <c r="K24">
-        <v>9.097558004573203</v>
+        <v>13.2324027970985</v>
       </c>
       <c r="L24">
-        <v>12.47358975498074</v>
+        <v>9.503328576044465</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.50598839157406</v>
+        <v>14.22960282630065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.27833569586052</v>
+        <v>15.87874887156707</v>
       </c>
       <c r="C25">
-        <v>12.3873915062945</v>
+        <v>7.977305377725076</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>16.89855446011488</v>
+        <v>11.51920479514049</v>
       </c>
       <c r="F25">
-        <v>38.0750479285633</v>
+        <v>26.96457305019949</v>
       </c>
       <c r="G25">
-        <v>32.1215724575635</v>
+        <v>21.54783042456403</v>
       </c>
       <c r="H25">
-        <v>15.27692621000383</v>
+        <v>8.998919799102381</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.069744256048491</v>
+        <v>5.646585391274387</v>
       </c>
       <c r="K25">
-        <v>8.695867449574679</v>
+        <v>12.21285442887792</v>
       </c>
       <c r="L25">
-        <v>12.40014984699404</v>
+        <v>8.953285566744286</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.67301993843298</v>
+        <v>14.48192454166819</v>
       </c>
     </row>
   </sheetData>
